--- a/INTLINE/data/193/ABS/5368012a.xlsx
+++ b/INTLINE/data/193/ABS/5368012a.xlsx
@@ -12,242 +12,242 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A1827804K">Data1!$B$1:$B$10,Data1!$B$11:$B$419</definedName>
-    <definedName name="A1827804K_Data">Data1!$B$11:$B$419</definedName>
-    <definedName name="A1827804K_Latest">Data1!$B$419</definedName>
-    <definedName name="A1827805L">Data1!$C$1:$C$10,Data1!$C$11:$C$419</definedName>
-    <definedName name="A1827805L_Data">Data1!$C$11:$C$419</definedName>
-    <definedName name="A1827805L_Latest">Data1!$C$419</definedName>
-    <definedName name="A1827806R">Data1!$D$1:$D$10,Data1!$D$11:$D$419</definedName>
-    <definedName name="A1827806R_Data">Data1!$D$11:$D$419</definedName>
-    <definedName name="A1827806R_Latest">Data1!$D$419</definedName>
-    <definedName name="A1827807T">Data1!$E$1:$E$10,Data1!$E$11:$E$419</definedName>
-    <definedName name="A1827807T_Data">Data1!$E$11:$E$419</definedName>
-    <definedName name="A1827807T_Latest">Data1!$E$419</definedName>
-    <definedName name="A1827808V">Data1!$F$1:$F$10,Data1!$F$11:$F$419</definedName>
-    <definedName name="A1827808V_Data">Data1!$F$11:$F$419</definedName>
-    <definedName name="A1827808V_Latest">Data1!$F$419</definedName>
-    <definedName name="A1827809W">Data1!$G$1:$G$10,Data1!$G$11:$G$419</definedName>
-    <definedName name="A1827809W_Data">Data1!$G$11:$G$419</definedName>
-    <definedName name="A1827809W_Latest">Data1!$G$419</definedName>
-    <definedName name="A1827810F">Data1!$H$1:$H$10,Data1!$H$11:$H$419</definedName>
-    <definedName name="A1827810F_Data">Data1!$H$11:$H$419</definedName>
-    <definedName name="A1827810F_Latest">Data1!$H$419</definedName>
-    <definedName name="A1827811J">Data1!$I$1:$I$10,Data1!$I$11:$I$419</definedName>
-    <definedName name="A1827811J_Data">Data1!$I$11:$I$419</definedName>
-    <definedName name="A1827811J_Latest">Data1!$I$419</definedName>
-    <definedName name="A1827812K">Data1!$J$1:$J$10,Data1!$J$11:$J$419</definedName>
-    <definedName name="A1827812K_Data">Data1!$J$11:$J$419</definedName>
-    <definedName name="A1827812K_Latest">Data1!$J$419</definedName>
-    <definedName name="A1827813L">Data1!$K$1:$K$10,Data1!$K$11:$K$419</definedName>
-    <definedName name="A1827813L_Data">Data1!$K$11:$K$419</definedName>
-    <definedName name="A1827813L_Latest">Data1!$K$419</definedName>
-    <definedName name="A1827814R">Data1!$L$1:$L$10,Data1!$L$11:$L$419</definedName>
-    <definedName name="A1827814R_Data">Data1!$L$11:$L$419</definedName>
-    <definedName name="A1827814R_Latest">Data1!$L$419</definedName>
-    <definedName name="A1827815T">Data1!$M$1:$M$10,Data1!$M$11:$M$419</definedName>
-    <definedName name="A1827815T_Data">Data1!$M$11:$M$419</definedName>
-    <definedName name="A1827815T_Latest">Data1!$M$419</definedName>
-    <definedName name="A1827816V">Data1!$N$1:$N$10,Data1!$N$11:$N$419</definedName>
-    <definedName name="A1827816V_Data">Data1!$N$11:$N$419</definedName>
-    <definedName name="A1827816V_Latest">Data1!$N$419</definedName>
-    <definedName name="A1827817W">Data1!$O$1:$O$10,Data1!$O$11:$O$419</definedName>
-    <definedName name="A1827817W_Data">Data1!$O$11:$O$419</definedName>
-    <definedName name="A1827817W_Latest">Data1!$O$419</definedName>
-    <definedName name="A1827818X">Data1!$P$1:$P$10,Data1!$P$11:$P$419</definedName>
-    <definedName name="A1827818X_Data">Data1!$P$11:$P$419</definedName>
-    <definedName name="A1827818X_Latest">Data1!$P$419</definedName>
-    <definedName name="A1827819A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$419</definedName>
-    <definedName name="A1827819A_Data">Data1!$Q$11:$Q$419</definedName>
-    <definedName name="A1827819A_Latest">Data1!$Q$419</definedName>
-    <definedName name="A1827820K">Data1!$R$1:$R$10,Data1!$R$11:$R$419</definedName>
-    <definedName name="A1827820K_Data">Data1!$R$11:$R$419</definedName>
-    <definedName name="A1827820K_Latest">Data1!$R$419</definedName>
-    <definedName name="A1827821L">Data1!$S$1:$S$10,Data1!$S$11:$S$419</definedName>
-    <definedName name="A1827821L_Data">Data1!$S$11:$S$419</definedName>
-    <definedName name="A1827821L_Latest">Data1!$S$419</definedName>
-    <definedName name="A1827822R">Data1!$T$1:$T$10,Data1!$T$11:$T$419</definedName>
-    <definedName name="A1827822R_Data">Data1!$T$11:$T$419</definedName>
-    <definedName name="A1827822R_Latest">Data1!$T$419</definedName>
-    <definedName name="A1827823T">Data1!$U$1:$U$10,Data1!$U$11:$U$419</definedName>
-    <definedName name="A1827823T_Data">Data1!$U$11:$U$419</definedName>
-    <definedName name="A1827823T_Latest">Data1!$U$419</definedName>
-    <definedName name="A1827824V">Data1!$V$1:$V$10,Data1!$V$11:$V$419</definedName>
-    <definedName name="A1827824V_Data">Data1!$V$11:$V$419</definedName>
-    <definedName name="A1827824V_Latest">Data1!$V$419</definedName>
-    <definedName name="A1827825W">Data1!$W$1:$W$10,Data1!$W$11:$W$419</definedName>
-    <definedName name="A1827825W_Data">Data1!$W$11:$W$419</definedName>
-    <definedName name="A1827825W_Latest">Data1!$W$419</definedName>
-    <definedName name="A1827826X">Data1!$X$1:$X$10,Data1!$X$11:$X$419</definedName>
-    <definedName name="A1827826X_Data">Data1!$X$11:$X$419</definedName>
-    <definedName name="A1827826X_Latest">Data1!$X$419</definedName>
-    <definedName name="A1827827A">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$419</definedName>
-    <definedName name="A1827827A_Data">Data1!$Y$11:$Y$419</definedName>
-    <definedName name="A1827827A_Latest">Data1!$Y$419</definedName>
-    <definedName name="A1827828C">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$419</definedName>
-    <definedName name="A1827828C_Data">Data1!$Z$11:$Z$419</definedName>
-    <definedName name="A1827828C_Latest">Data1!$Z$419</definedName>
-    <definedName name="A1827829F">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$419</definedName>
-    <definedName name="A1827829F_Data">Data1!$AA$11:$AA$419</definedName>
-    <definedName name="A1827829F_Latest">Data1!$AA$419</definedName>
-    <definedName name="A1827830R">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$419</definedName>
-    <definedName name="A1827830R_Data">Data1!$AB$11:$AB$419</definedName>
-    <definedName name="A1827830R_Latest">Data1!$AB$419</definedName>
-    <definedName name="A1827831T">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$419</definedName>
-    <definedName name="A1827831T_Data">Data1!$AC$11:$AC$419</definedName>
-    <definedName name="A1827831T_Latest">Data1!$AC$419</definedName>
-    <definedName name="A1827832V">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$419</definedName>
-    <definedName name="A1827832V_Data">Data1!$AD$11:$AD$419</definedName>
-    <definedName name="A1827832V_Latest">Data1!$AD$419</definedName>
-    <definedName name="A1827833W">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$419</definedName>
-    <definedName name="A1827833W_Data">Data1!$AE$11:$AE$419</definedName>
-    <definedName name="A1827833W_Latest">Data1!$AE$419</definedName>
-    <definedName name="A1827834X">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$419</definedName>
-    <definedName name="A1827834X_Data">Data1!$AF$11:$AF$419</definedName>
-    <definedName name="A1827834X_Latest">Data1!$AF$419</definedName>
-    <definedName name="A1827835A">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$419</definedName>
-    <definedName name="A1827835A_Data">Data1!$AG$11:$AG$419</definedName>
-    <definedName name="A1827835A_Latest">Data1!$AG$419</definedName>
-    <definedName name="A1827836C">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$419</definedName>
-    <definedName name="A1827836C_Data">Data1!$AH$11:$AH$419</definedName>
-    <definedName name="A1827836C_Latest">Data1!$AH$419</definedName>
-    <definedName name="A1827837F">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$419</definedName>
-    <definedName name="A1827837F_Data">Data1!$AI$11:$AI$419</definedName>
-    <definedName name="A1827837F_Latest">Data1!$AI$419</definedName>
-    <definedName name="A1827838J">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$419</definedName>
-    <definedName name="A1827838J_Data">Data1!$AJ$11:$AJ$419</definedName>
-    <definedName name="A1827838J_Latest">Data1!$AJ$419</definedName>
-    <definedName name="A1827839K">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$419</definedName>
-    <definedName name="A1827839K_Data">Data1!$AK$11:$AK$419</definedName>
-    <definedName name="A1827839K_Latest">Data1!$AK$419</definedName>
-    <definedName name="A1827840V">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$419</definedName>
-    <definedName name="A1827840V_Data">Data1!$AL$11:$AL$419</definedName>
-    <definedName name="A1827840V_Latest">Data1!$AL$419</definedName>
-    <definedName name="A1827841W">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$419</definedName>
-    <definedName name="A1827841W_Data">Data1!$AM$11:$AM$419</definedName>
-    <definedName name="A1827841W_Latest">Data1!$AM$419</definedName>
-    <definedName name="A1827842X">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$419</definedName>
-    <definedName name="A1827842X_Data">Data1!$AN$11:$AN$419</definedName>
-    <definedName name="A1827842X_Latest">Data1!$AN$419</definedName>
-    <definedName name="A1827843A">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$419</definedName>
-    <definedName name="A1827843A_Data">Data1!$AO$11:$AO$419</definedName>
-    <definedName name="A1827843A_Latest">Data1!$AO$419</definedName>
-    <definedName name="A1827844C">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$419</definedName>
-    <definedName name="A1827844C_Data">Data1!$AP$11:$AP$419</definedName>
-    <definedName name="A1827844C_Latest">Data1!$AP$419</definedName>
-    <definedName name="A1827845F">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$419</definedName>
-    <definedName name="A1827845F_Data">Data1!$AQ$11:$AQ$419</definedName>
-    <definedName name="A1827845F_Latest">Data1!$AQ$419</definedName>
-    <definedName name="A1827846J">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$419</definedName>
-    <definedName name="A1827846J_Data">Data1!$AR$11:$AR$419</definedName>
-    <definedName name="A1827846J_Latest">Data1!$AR$419</definedName>
-    <definedName name="A1827847K">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$419</definedName>
-    <definedName name="A1827847K_Data">Data1!$AS$11:$AS$419</definedName>
-    <definedName name="A1827847K_Latest">Data1!$AS$419</definedName>
-    <definedName name="A1827848L">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$419</definedName>
-    <definedName name="A1827848L_Data">Data1!$AT$11:$AT$419</definedName>
-    <definedName name="A1827848L_Latest">Data1!$AT$419</definedName>
-    <definedName name="A1827849R">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$419</definedName>
-    <definedName name="A1827849R_Data">Data1!$AU$11:$AU$419</definedName>
-    <definedName name="A1827849R_Latest">Data1!$AU$419</definedName>
-    <definedName name="A1827850X">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$419</definedName>
-    <definedName name="A1827850X_Data">Data1!$AV$11:$AV$419</definedName>
-    <definedName name="A1827850X_Latest">Data1!$AV$419</definedName>
-    <definedName name="A1827851A">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$419</definedName>
-    <definedName name="A1827851A_Data">Data1!$AW$11:$AW$419</definedName>
-    <definedName name="A1827851A_Latest">Data1!$AW$419</definedName>
-    <definedName name="A1827852C">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$419</definedName>
-    <definedName name="A1827852C_Data">Data1!$AX$11:$AX$419</definedName>
-    <definedName name="A1827852C_Latest">Data1!$AX$419</definedName>
-    <definedName name="A1827853F">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$419</definedName>
-    <definedName name="A1827853F_Data">Data1!$AY$11:$AY$419</definedName>
-    <definedName name="A1827853F_Latest">Data1!$AY$419</definedName>
-    <definedName name="A1827854J">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$419</definedName>
-    <definedName name="A1827854J_Data">Data1!$AZ$11:$AZ$419</definedName>
-    <definedName name="A1827854J_Latest">Data1!$AZ$419</definedName>
-    <definedName name="A1827855K">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$419</definedName>
-    <definedName name="A1827855K_Data">Data1!$BA$11:$BA$419</definedName>
-    <definedName name="A1827855K_Latest">Data1!$BA$419</definedName>
-    <definedName name="A1827856L">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$419</definedName>
-    <definedName name="A1827856L_Data">Data1!$BB$11:$BB$419</definedName>
-    <definedName name="A1827856L_Latest">Data1!$BB$419</definedName>
-    <definedName name="A1827857R">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$419</definedName>
-    <definedName name="A1827857R_Data">Data1!$BC$11:$BC$419</definedName>
-    <definedName name="A1827857R_Latest">Data1!$BC$419</definedName>
-    <definedName name="A1827858T">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$419</definedName>
-    <definedName name="A1827858T_Data">Data1!$BD$11:$BD$419</definedName>
-    <definedName name="A1827858T_Latest">Data1!$BD$419</definedName>
-    <definedName name="A1827859V">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$419</definedName>
-    <definedName name="A1827859V_Data">Data1!$BE$11:$BE$419</definedName>
-    <definedName name="A1827859V_Latest">Data1!$BE$419</definedName>
-    <definedName name="A1827860C">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$419</definedName>
-    <definedName name="A1827860C_Data">Data1!$BF$11:$BF$419</definedName>
-    <definedName name="A1827860C_Latest">Data1!$BF$419</definedName>
-    <definedName name="A1827861F">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$419</definedName>
-    <definedName name="A1827861F_Data">Data1!$BG$11:$BG$419</definedName>
-    <definedName name="A1827861F_Latest">Data1!$BG$419</definedName>
-    <definedName name="A1827862J">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$419</definedName>
-    <definedName name="A1827862J_Data">Data1!$BH$11:$BH$419</definedName>
-    <definedName name="A1827862J_Latest">Data1!$BH$419</definedName>
-    <definedName name="A1827863K">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$419</definedName>
-    <definedName name="A1827863K_Data">Data1!$BI$11:$BI$419</definedName>
-    <definedName name="A1827863K_Latest">Data1!$BI$419</definedName>
-    <definedName name="A1827864L">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$419</definedName>
-    <definedName name="A1827864L_Data">Data1!$BJ$11:$BJ$419</definedName>
-    <definedName name="A1827864L_Latest">Data1!$BJ$419</definedName>
-    <definedName name="A1827865R">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$419</definedName>
-    <definedName name="A1827865R_Data">Data1!$BK$11:$BK$419</definedName>
-    <definedName name="A1827865R_Latest">Data1!$BK$419</definedName>
-    <definedName name="A1827866T">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$419</definedName>
-    <definedName name="A1827866T_Data">Data1!$BL$11:$BL$419</definedName>
-    <definedName name="A1827866T_Latest">Data1!$BL$419</definedName>
-    <definedName name="A1827867V">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$419</definedName>
-    <definedName name="A1827867V_Data">Data1!$BM$11:$BM$419</definedName>
-    <definedName name="A1827867V_Latest">Data1!$BM$419</definedName>
-    <definedName name="A1827868W">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$419</definedName>
-    <definedName name="A1827868W_Data">Data1!$BN$11:$BN$419</definedName>
-    <definedName name="A1827868W_Latest">Data1!$BN$419</definedName>
-    <definedName name="A1827869X">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$419</definedName>
-    <definedName name="A1827869X_Data">Data1!$BO$11:$BO$419</definedName>
-    <definedName name="A1827869X_Latest">Data1!$BO$419</definedName>
-    <definedName name="A1827870J">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$419</definedName>
-    <definedName name="A1827870J_Data">Data1!$BP$11:$BP$419</definedName>
-    <definedName name="A1827870J_Latest">Data1!$BP$419</definedName>
-    <definedName name="A1827871K">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$419</definedName>
-    <definedName name="A1827871K_Data">Data1!$BQ$11:$BQ$419</definedName>
-    <definedName name="A1827871K_Latest">Data1!$BQ$419</definedName>
-    <definedName name="A1827872L">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$419</definedName>
-    <definedName name="A1827872L_Data">Data1!$BR$11:$BR$419</definedName>
-    <definedName name="A1827872L_Latest">Data1!$BR$419</definedName>
-    <definedName name="A1827873R">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$419</definedName>
-    <definedName name="A1827873R_Data">Data1!$BS$11:$BS$419</definedName>
-    <definedName name="A1827873R_Latest">Data1!$BS$419</definedName>
-    <definedName name="A1827874T">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$419</definedName>
-    <definedName name="A1827874T_Data">Data1!$BT$11:$BT$419</definedName>
-    <definedName name="A1827874T_Latest">Data1!$BT$419</definedName>
-    <definedName name="A1827875V">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$419</definedName>
-    <definedName name="A1827875V_Data">Data1!$BU$11:$BU$419</definedName>
-    <definedName name="A1827875V_Latest">Data1!$BU$419</definedName>
-    <definedName name="A1827876W">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$419</definedName>
-    <definedName name="A1827876W_Data">Data1!$BV$11:$BV$419</definedName>
-    <definedName name="A1827876W_Latest">Data1!$BV$419</definedName>
-    <definedName name="A1827877X">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$419</definedName>
-    <definedName name="A1827877X_Data">Data1!$BW$11:$BW$419</definedName>
-    <definedName name="A1827877X_Latest">Data1!$BW$419</definedName>
-    <definedName name="A1827878A">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$419</definedName>
-    <definedName name="A1827878A_Data">Data1!$BX$11:$BX$419</definedName>
-    <definedName name="A1827878A_Latest">Data1!$BX$419</definedName>
-    <definedName name="A1827879C">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$419</definedName>
-    <definedName name="A1827879C_Data">Data1!$BY$11:$BY$419</definedName>
-    <definedName name="A1827879C_Latest">Data1!$BY$419</definedName>
-    <definedName name="A1827880L">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$419</definedName>
-    <definedName name="A1827880L_Data">Data1!$BZ$11:$BZ$419</definedName>
-    <definedName name="A1827880L_Latest">Data1!$BZ$419</definedName>
-    <definedName name="A1827881R">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$419</definedName>
-    <definedName name="A1827881R_Data">Data1!$CA$11:$CA$419</definedName>
-    <definedName name="A1827881R_Latest">Data1!$CA$419</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$419</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$419</definedName>
+    <definedName name="A1827804K">Data1!$B$1:$B$10,Data1!$B$11:$B$422</definedName>
+    <definedName name="A1827804K_Data">Data1!$B$11:$B$422</definedName>
+    <definedName name="A1827804K_Latest">Data1!$B$422</definedName>
+    <definedName name="A1827805L">Data1!$C$1:$C$10,Data1!$C$11:$C$422</definedName>
+    <definedName name="A1827805L_Data">Data1!$C$11:$C$422</definedName>
+    <definedName name="A1827805L_Latest">Data1!$C$422</definedName>
+    <definedName name="A1827806R">Data1!$D$1:$D$10,Data1!$D$11:$D$422</definedName>
+    <definedName name="A1827806R_Data">Data1!$D$11:$D$422</definedName>
+    <definedName name="A1827806R_Latest">Data1!$D$422</definedName>
+    <definedName name="A1827807T">Data1!$E$1:$E$10,Data1!$E$11:$E$422</definedName>
+    <definedName name="A1827807T_Data">Data1!$E$11:$E$422</definedName>
+    <definedName name="A1827807T_Latest">Data1!$E$422</definedName>
+    <definedName name="A1827808V">Data1!$F$1:$F$10,Data1!$F$11:$F$422</definedName>
+    <definedName name="A1827808V_Data">Data1!$F$11:$F$422</definedName>
+    <definedName name="A1827808V_Latest">Data1!$F$422</definedName>
+    <definedName name="A1827809W">Data1!$G$1:$G$10,Data1!$G$11:$G$422</definedName>
+    <definedName name="A1827809W_Data">Data1!$G$11:$G$422</definedName>
+    <definedName name="A1827809W_Latest">Data1!$G$422</definedName>
+    <definedName name="A1827810F">Data1!$H$1:$H$10,Data1!$H$11:$H$422</definedName>
+    <definedName name="A1827810F_Data">Data1!$H$11:$H$422</definedName>
+    <definedName name="A1827810F_Latest">Data1!$H$422</definedName>
+    <definedName name="A1827811J">Data1!$I$1:$I$10,Data1!$I$11:$I$422</definedName>
+    <definedName name="A1827811J_Data">Data1!$I$11:$I$422</definedName>
+    <definedName name="A1827811J_Latest">Data1!$I$422</definedName>
+    <definedName name="A1827812K">Data1!$J$1:$J$10,Data1!$J$11:$J$422</definedName>
+    <definedName name="A1827812K_Data">Data1!$J$11:$J$422</definedName>
+    <definedName name="A1827812K_Latest">Data1!$J$422</definedName>
+    <definedName name="A1827813L">Data1!$K$1:$K$10,Data1!$K$11:$K$422</definedName>
+    <definedName name="A1827813L_Data">Data1!$K$11:$K$422</definedName>
+    <definedName name="A1827813L_Latest">Data1!$K$422</definedName>
+    <definedName name="A1827814R">Data1!$L$1:$L$10,Data1!$L$11:$L$422</definedName>
+    <definedName name="A1827814R_Data">Data1!$L$11:$L$422</definedName>
+    <definedName name="A1827814R_Latest">Data1!$L$422</definedName>
+    <definedName name="A1827815T">Data1!$M$1:$M$10,Data1!$M$11:$M$422</definedName>
+    <definedName name="A1827815T_Data">Data1!$M$11:$M$422</definedName>
+    <definedName name="A1827815T_Latest">Data1!$M$422</definedName>
+    <definedName name="A1827816V">Data1!$N$1:$N$10,Data1!$N$11:$N$422</definedName>
+    <definedName name="A1827816V_Data">Data1!$N$11:$N$422</definedName>
+    <definedName name="A1827816V_Latest">Data1!$N$422</definedName>
+    <definedName name="A1827817W">Data1!$O$1:$O$10,Data1!$O$11:$O$422</definedName>
+    <definedName name="A1827817W_Data">Data1!$O$11:$O$422</definedName>
+    <definedName name="A1827817W_Latest">Data1!$O$422</definedName>
+    <definedName name="A1827818X">Data1!$P$1:$P$10,Data1!$P$11:$P$422</definedName>
+    <definedName name="A1827818X_Data">Data1!$P$11:$P$422</definedName>
+    <definedName name="A1827818X_Latest">Data1!$P$422</definedName>
+    <definedName name="A1827819A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$422</definedName>
+    <definedName name="A1827819A_Data">Data1!$Q$11:$Q$422</definedName>
+    <definedName name="A1827819A_Latest">Data1!$Q$422</definedName>
+    <definedName name="A1827820K">Data1!$R$1:$R$10,Data1!$R$11:$R$422</definedName>
+    <definedName name="A1827820K_Data">Data1!$R$11:$R$422</definedName>
+    <definedName name="A1827820K_Latest">Data1!$R$422</definedName>
+    <definedName name="A1827821L">Data1!$S$1:$S$10,Data1!$S$11:$S$422</definedName>
+    <definedName name="A1827821L_Data">Data1!$S$11:$S$422</definedName>
+    <definedName name="A1827821L_Latest">Data1!$S$422</definedName>
+    <definedName name="A1827822R">Data1!$T$1:$T$10,Data1!$T$11:$T$422</definedName>
+    <definedName name="A1827822R_Data">Data1!$T$11:$T$422</definedName>
+    <definedName name="A1827822R_Latest">Data1!$T$422</definedName>
+    <definedName name="A1827823T">Data1!$U$1:$U$10,Data1!$U$11:$U$422</definedName>
+    <definedName name="A1827823T_Data">Data1!$U$11:$U$422</definedName>
+    <definedName name="A1827823T_Latest">Data1!$U$422</definedName>
+    <definedName name="A1827824V">Data1!$V$1:$V$10,Data1!$V$11:$V$422</definedName>
+    <definedName name="A1827824V_Data">Data1!$V$11:$V$422</definedName>
+    <definedName name="A1827824V_Latest">Data1!$V$422</definedName>
+    <definedName name="A1827825W">Data1!$W$1:$W$10,Data1!$W$11:$W$422</definedName>
+    <definedName name="A1827825W_Data">Data1!$W$11:$W$422</definedName>
+    <definedName name="A1827825W_Latest">Data1!$W$422</definedName>
+    <definedName name="A1827826X">Data1!$X$1:$X$10,Data1!$X$11:$X$422</definedName>
+    <definedName name="A1827826X_Data">Data1!$X$11:$X$422</definedName>
+    <definedName name="A1827826X_Latest">Data1!$X$422</definedName>
+    <definedName name="A1827827A">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$422</definedName>
+    <definedName name="A1827827A_Data">Data1!$Y$11:$Y$422</definedName>
+    <definedName name="A1827827A_Latest">Data1!$Y$422</definedName>
+    <definedName name="A1827828C">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$422</definedName>
+    <definedName name="A1827828C_Data">Data1!$Z$11:$Z$422</definedName>
+    <definedName name="A1827828C_Latest">Data1!$Z$422</definedName>
+    <definedName name="A1827829F">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$422</definedName>
+    <definedName name="A1827829F_Data">Data1!$AA$11:$AA$422</definedName>
+    <definedName name="A1827829F_Latest">Data1!$AA$422</definedName>
+    <definedName name="A1827830R">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$422</definedName>
+    <definedName name="A1827830R_Data">Data1!$AB$11:$AB$422</definedName>
+    <definedName name="A1827830R_Latest">Data1!$AB$422</definedName>
+    <definedName name="A1827831T">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$422</definedName>
+    <definedName name="A1827831T_Data">Data1!$AC$11:$AC$422</definedName>
+    <definedName name="A1827831T_Latest">Data1!$AC$422</definedName>
+    <definedName name="A1827832V">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$422</definedName>
+    <definedName name="A1827832V_Data">Data1!$AD$11:$AD$422</definedName>
+    <definedName name="A1827832V_Latest">Data1!$AD$422</definedName>
+    <definedName name="A1827833W">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$422</definedName>
+    <definedName name="A1827833W_Data">Data1!$AE$11:$AE$422</definedName>
+    <definedName name="A1827833W_Latest">Data1!$AE$422</definedName>
+    <definedName name="A1827834X">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$422</definedName>
+    <definedName name="A1827834X_Data">Data1!$AF$11:$AF$422</definedName>
+    <definedName name="A1827834X_Latest">Data1!$AF$422</definedName>
+    <definedName name="A1827835A">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$422</definedName>
+    <definedName name="A1827835A_Data">Data1!$AG$11:$AG$422</definedName>
+    <definedName name="A1827835A_Latest">Data1!$AG$422</definedName>
+    <definedName name="A1827836C">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$422</definedName>
+    <definedName name="A1827836C_Data">Data1!$AH$11:$AH$422</definedName>
+    <definedName name="A1827836C_Latest">Data1!$AH$422</definedName>
+    <definedName name="A1827837F">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$422</definedName>
+    <definedName name="A1827837F_Data">Data1!$AI$11:$AI$422</definedName>
+    <definedName name="A1827837F_Latest">Data1!$AI$422</definedName>
+    <definedName name="A1827838J">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$422</definedName>
+    <definedName name="A1827838J_Data">Data1!$AJ$11:$AJ$422</definedName>
+    <definedName name="A1827838J_Latest">Data1!$AJ$422</definedName>
+    <definedName name="A1827839K">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$422</definedName>
+    <definedName name="A1827839K_Data">Data1!$AK$11:$AK$422</definedName>
+    <definedName name="A1827839K_Latest">Data1!$AK$422</definedName>
+    <definedName name="A1827840V">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$422</definedName>
+    <definedName name="A1827840V_Data">Data1!$AL$11:$AL$422</definedName>
+    <definedName name="A1827840V_Latest">Data1!$AL$422</definedName>
+    <definedName name="A1827841W">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$422</definedName>
+    <definedName name="A1827841W_Data">Data1!$AM$11:$AM$422</definedName>
+    <definedName name="A1827841W_Latest">Data1!$AM$422</definedName>
+    <definedName name="A1827842X">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$422</definedName>
+    <definedName name="A1827842X_Data">Data1!$AN$11:$AN$422</definedName>
+    <definedName name="A1827842X_Latest">Data1!$AN$422</definedName>
+    <definedName name="A1827843A">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$422</definedName>
+    <definedName name="A1827843A_Data">Data1!$AO$11:$AO$422</definedName>
+    <definedName name="A1827843A_Latest">Data1!$AO$422</definedName>
+    <definedName name="A1827844C">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$422</definedName>
+    <definedName name="A1827844C_Data">Data1!$AP$11:$AP$422</definedName>
+    <definedName name="A1827844C_Latest">Data1!$AP$422</definedName>
+    <definedName name="A1827845F">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$422</definedName>
+    <definedName name="A1827845F_Data">Data1!$AQ$11:$AQ$422</definedName>
+    <definedName name="A1827845F_Latest">Data1!$AQ$422</definedName>
+    <definedName name="A1827846J">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$422</definedName>
+    <definedName name="A1827846J_Data">Data1!$AR$11:$AR$422</definedName>
+    <definedName name="A1827846J_Latest">Data1!$AR$422</definedName>
+    <definedName name="A1827847K">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$422</definedName>
+    <definedName name="A1827847K_Data">Data1!$AS$11:$AS$422</definedName>
+    <definedName name="A1827847K_Latest">Data1!$AS$422</definedName>
+    <definedName name="A1827848L">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$422</definedName>
+    <definedName name="A1827848L_Data">Data1!$AT$11:$AT$422</definedName>
+    <definedName name="A1827848L_Latest">Data1!$AT$422</definedName>
+    <definedName name="A1827849R">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$422</definedName>
+    <definedName name="A1827849R_Data">Data1!$AU$11:$AU$422</definedName>
+    <definedName name="A1827849R_Latest">Data1!$AU$422</definedName>
+    <definedName name="A1827850X">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$422</definedName>
+    <definedName name="A1827850X_Data">Data1!$AV$11:$AV$422</definedName>
+    <definedName name="A1827850X_Latest">Data1!$AV$422</definedName>
+    <definedName name="A1827851A">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$422</definedName>
+    <definedName name="A1827851A_Data">Data1!$AW$11:$AW$422</definedName>
+    <definedName name="A1827851A_Latest">Data1!$AW$422</definedName>
+    <definedName name="A1827852C">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$422</definedName>
+    <definedName name="A1827852C_Data">Data1!$AX$11:$AX$422</definedName>
+    <definedName name="A1827852C_Latest">Data1!$AX$422</definedName>
+    <definedName name="A1827853F">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$422</definedName>
+    <definedName name="A1827853F_Data">Data1!$AY$11:$AY$422</definedName>
+    <definedName name="A1827853F_Latest">Data1!$AY$422</definedName>
+    <definedName name="A1827854J">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$422</definedName>
+    <definedName name="A1827854J_Data">Data1!$AZ$11:$AZ$422</definedName>
+    <definedName name="A1827854J_Latest">Data1!$AZ$422</definedName>
+    <definedName name="A1827855K">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$422</definedName>
+    <definedName name="A1827855K_Data">Data1!$BA$11:$BA$422</definedName>
+    <definedName name="A1827855K_Latest">Data1!$BA$422</definedName>
+    <definedName name="A1827856L">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$422</definedName>
+    <definedName name="A1827856L_Data">Data1!$BB$11:$BB$422</definedName>
+    <definedName name="A1827856L_Latest">Data1!$BB$422</definedName>
+    <definedName name="A1827857R">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$422</definedName>
+    <definedName name="A1827857R_Data">Data1!$BC$11:$BC$422</definedName>
+    <definedName name="A1827857R_Latest">Data1!$BC$422</definedName>
+    <definedName name="A1827858T">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$422</definedName>
+    <definedName name="A1827858T_Data">Data1!$BD$11:$BD$422</definedName>
+    <definedName name="A1827858T_Latest">Data1!$BD$422</definedName>
+    <definedName name="A1827859V">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$422</definedName>
+    <definedName name="A1827859V_Data">Data1!$BE$11:$BE$422</definedName>
+    <definedName name="A1827859V_Latest">Data1!$BE$422</definedName>
+    <definedName name="A1827860C">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$422</definedName>
+    <definedName name="A1827860C_Data">Data1!$BF$11:$BF$422</definedName>
+    <definedName name="A1827860C_Latest">Data1!$BF$422</definedName>
+    <definedName name="A1827861F">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$422</definedName>
+    <definedName name="A1827861F_Data">Data1!$BG$11:$BG$422</definedName>
+    <definedName name="A1827861F_Latest">Data1!$BG$422</definedName>
+    <definedName name="A1827862J">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$422</definedName>
+    <definedName name="A1827862J_Data">Data1!$BH$11:$BH$422</definedName>
+    <definedName name="A1827862J_Latest">Data1!$BH$422</definedName>
+    <definedName name="A1827863K">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$422</definedName>
+    <definedName name="A1827863K_Data">Data1!$BI$11:$BI$422</definedName>
+    <definedName name="A1827863K_Latest">Data1!$BI$422</definedName>
+    <definedName name="A1827864L">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$422</definedName>
+    <definedName name="A1827864L_Data">Data1!$BJ$11:$BJ$422</definedName>
+    <definedName name="A1827864L_Latest">Data1!$BJ$422</definedName>
+    <definedName name="A1827865R">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$422</definedName>
+    <definedName name="A1827865R_Data">Data1!$BK$11:$BK$422</definedName>
+    <definedName name="A1827865R_Latest">Data1!$BK$422</definedName>
+    <definedName name="A1827866T">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$422</definedName>
+    <definedName name="A1827866T_Data">Data1!$BL$11:$BL$422</definedName>
+    <definedName name="A1827866T_Latest">Data1!$BL$422</definedName>
+    <definedName name="A1827867V">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$422</definedName>
+    <definedName name="A1827867V_Data">Data1!$BM$11:$BM$422</definedName>
+    <definedName name="A1827867V_Latest">Data1!$BM$422</definedName>
+    <definedName name="A1827868W">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$422</definedName>
+    <definedName name="A1827868W_Data">Data1!$BN$11:$BN$422</definedName>
+    <definedName name="A1827868W_Latest">Data1!$BN$422</definedName>
+    <definedName name="A1827869X">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$422</definedName>
+    <definedName name="A1827869X_Data">Data1!$BO$11:$BO$422</definedName>
+    <definedName name="A1827869X_Latest">Data1!$BO$422</definedName>
+    <definedName name="A1827870J">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$422</definedName>
+    <definedName name="A1827870J_Data">Data1!$BP$11:$BP$422</definedName>
+    <definedName name="A1827870J_Latest">Data1!$BP$422</definedName>
+    <definedName name="A1827871K">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$422</definedName>
+    <definedName name="A1827871K_Data">Data1!$BQ$11:$BQ$422</definedName>
+    <definedName name="A1827871K_Latest">Data1!$BQ$422</definedName>
+    <definedName name="A1827872L">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$422</definedName>
+    <definedName name="A1827872L_Data">Data1!$BR$11:$BR$422</definedName>
+    <definedName name="A1827872L_Latest">Data1!$BR$422</definedName>
+    <definedName name="A1827873R">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$422</definedName>
+    <definedName name="A1827873R_Data">Data1!$BS$11:$BS$422</definedName>
+    <definedName name="A1827873R_Latest">Data1!$BS$422</definedName>
+    <definedName name="A1827874T">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$422</definedName>
+    <definedName name="A1827874T_Data">Data1!$BT$11:$BT$422</definedName>
+    <definedName name="A1827874T_Latest">Data1!$BT$422</definedName>
+    <definedName name="A1827875V">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$422</definedName>
+    <definedName name="A1827875V_Data">Data1!$BU$11:$BU$422</definedName>
+    <definedName name="A1827875V_Latest">Data1!$BU$422</definedName>
+    <definedName name="A1827876W">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$422</definedName>
+    <definedName name="A1827876W_Data">Data1!$BV$11:$BV$422</definedName>
+    <definedName name="A1827876W_Latest">Data1!$BV$422</definedName>
+    <definedName name="A1827877X">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$422</definedName>
+    <definedName name="A1827877X_Data">Data1!$BW$11:$BW$422</definedName>
+    <definedName name="A1827877X_Latest">Data1!$BW$422</definedName>
+    <definedName name="A1827878A">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$422</definedName>
+    <definedName name="A1827878A_Data">Data1!$BX$11:$BX$422</definedName>
+    <definedName name="A1827878A_Latest">Data1!$BX$422</definedName>
+    <definedName name="A1827879C">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$422</definedName>
+    <definedName name="A1827879C_Data">Data1!$BY$11:$BY$422</definedName>
+    <definedName name="A1827879C_Latest">Data1!$BY$422</definedName>
+    <definedName name="A1827880L">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$422</definedName>
+    <definedName name="A1827880L_Data">Data1!$BZ$11:$BZ$422</definedName>
+    <definedName name="A1827880L_Latest">Data1!$BZ$422</definedName>
+    <definedName name="A1827881R">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$422</definedName>
+    <definedName name="A1827881R_Data">Data1!$CA$11:$CA$422</definedName>
+    <definedName name="A1827881R_Latest">Data1!$CA$422</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$422</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$422</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1585,10 +1585,10 @@
         <v>32143</v>
       </c>
       <c r="G12" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>87</v>
@@ -1617,10 +1617,10 @@
         <v>32143</v>
       </c>
       <c r="G13" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>87</v>
@@ -1649,10 +1649,10 @@
         <v>32143</v>
       </c>
       <c r="G14" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>87</v>
@@ -1681,10 +1681,10 @@
         <v>32143</v>
       </c>
       <c r="G15" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>87</v>
@@ -1713,10 +1713,10 @@
         <v>32143</v>
       </c>
       <c r="G16" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>87</v>
@@ -1745,10 +1745,10 @@
         <v>32143</v>
       </c>
       <c r="G17" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>87</v>
@@ -1777,10 +1777,10 @@
         <v>32143</v>
       </c>
       <c r="G18" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>87</v>
@@ -1809,10 +1809,10 @@
         <v>32143</v>
       </c>
       <c r="G19" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>87</v>
@@ -1841,10 +1841,10 @@
         <v>32143</v>
       </c>
       <c r="G20" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>87</v>
@@ -1873,10 +1873,10 @@
         <v>32143</v>
       </c>
       <c r="G21" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>87</v>
@@ -1905,10 +1905,10 @@
         <v>32143</v>
       </c>
       <c r="G22" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>87</v>
@@ -1937,10 +1937,10 @@
         <v>32143</v>
       </c>
       <c r="G23" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>87</v>
@@ -1969,10 +1969,10 @@
         <v>32143</v>
       </c>
       <c r="G24" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>87</v>
@@ -2001,10 +2001,10 @@
         <v>32143</v>
       </c>
       <c r="G25" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>87</v>
@@ -2033,10 +2033,10 @@
         <v>32143</v>
       </c>
       <c r="G26" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>87</v>
@@ -2065,10 +2065,10 @@
         <v>32143</v>
       </c>
       <c r="G27" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H27" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>87</v>
@@ -2097,10 +2097,10 @@
         <v>32143</v>
       </c>
       <c r="G28" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H28" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>87</v>
@@ -2129,10 +2129,10 @@
         <v>32143</v>
       </c>
       <c r="G29" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H29" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>87</v>
@@ -2161,10 +2161,10 @@
         <v>32143</v>
       </c>
       <c r="G30" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H30" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>87</v>
@@ -2193,10 +2193,10 @@
         <v>32143</v>
       </c>
       <c r="G31" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H31" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>87</v>
@@ -2225,10 +2225,10 @@
         <v>32143</v>
       </c>
       <c r="G32" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H32" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>87</v>
@@ -2257,10 +2257,10 @@
         <v>32143</v>
       </c>
       <c r="G33" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H33" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>87</v>
@@ -2289,10 +2289,10 @@
         <v>32143</v>
       </c>
       <c r="G34" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H34" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>87</v>
@@ -2321,10 +2321,10 @@
         <v>32143</v>
       </c>
       <c r="G35" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H35" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>87</v>
@@ -2353,10 +2353,10 @@
         <v>32143</v>
       </c>
       <c r="G36" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H36" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>87</v>
@@ -2385,10 +2385,10 @@
         <v>32143</v>
       </c>
       <c r="G37" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H37" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>87</v>
@@ -2417,10 +2417,10 @@
         <v>32143</v>
       </c>
       <c r="G38" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H38" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>87</v>
@@ -2449,10 +2449,10 @@
         <v>32143</v>
       </c>
       <c r="G39" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H39" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>87</v>
@@ -2481,10 +2481,10 @@
         <v>32143</v>
       </c>
       <c r="G40" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H40" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>87</v>
@@ -2513,10 +2513,10 @@
         <v>32143</v>
       </c>
       <c r="G41" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H41" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>87</v>
@@ -2545,10 +2545,10 @@
         <v>32143</v>
       </c>
       <c r="G42" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H42" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>87</v>
@@ -2577,10 +2577,10 @@
         <v>32143</v>
       </c>
       <c r="G43" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H43" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>87</v>
@@ -2609,10 +2609,10 @@
         <v>32143</v>
       </c>
       <c r="G44" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H44" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>87</v>
@@ -2641,10 +2641,10 @@
         <v>32143</v>
       </c>
       <c r="G45" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H45" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>87</v>
@@ -2673,10 +2673,10 @@
         <v>32143</v>
       </c>
       <c r="G46" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H46" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>87</v>
@@ -2705,10 +2705,10 @@
         <v>32143</v>
       </c>
       <c r="G47" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H47" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>87</v>
@@ -2737,10 +2737,10 @@
         <v>32143</v>
       </c>
       <c r="G48" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H48" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>87</v>
@@ -2769,10 +2769,10 @@
         <v>32143</v>
       </c>
       <c r="G49" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H49" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>87</v>
@@ -2801,10 +2801,10 @@
         <v>32143</v>
       </c>
       <c r="G50" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H50" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>87</v>
@@ -2833,10 +2833,10 @@
         <v>32143</v>
       </c>
       <c r="G51" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H51" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>87</v>
@@ -2865,10 +2865,10 @@
         <v>32143</v>
       </c>
       <c r="G52" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H52" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>87</v>
@@ -2897,10 +2897,10 @@
         <v>32143</v>
       </c>
       <c r="G53" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H53" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>87</v>
@@ -2929,10 +2929,10 @@
         <v>32143</v>
       </c>
       <c r="G54" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H54" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>87</v>
@@ -2961,10 +2961,10 @@
         <v>32143</v>
       </c>
       <c r="G55" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H55" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>87</v>
@@ -2993,10 +2993,10 @@
         <v>32143</v>
       </c>
       <c r="G56" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H56" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>87</v>
@@ -3025,10 +3025,10 @@
         <v>32143</v>
       </c>
       <c r="G57" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H57" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>87</v>
@@ -3057,10 +3057,10 @@
         <v>32143</v>
       </c>
       <c r="G58" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H58" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>87</v>
@@ -3089,10 +3089,10 @@
         <v>32143</v>
       </c>
       <c r="G59" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H59" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>87</v>
@@ -3121,10 +3121,10 @@
         <v>32143</v>
       </c>
       <c r="G60" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H60" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>87</v>
@@ -3153,10 +3153,10 @@
         <v>32143</v>
       </c>
       <c r="G61" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H61" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>87</v>
@@ -3185,10 +3185,10 @@
         <v>32143</v>
       </c>
       <c r="G62" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H62" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>87</v>
@@ -3217,10 +3217,10 @@
         <v>32143</v>
       </c>
       <c r="G63" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H63" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>87</v>
@@ -3249,10 +3249,10 @@
         <v>32143</v>
       </c>
       <c r="G64" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H64" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>87</v>
@@ -3281,10 +3281,10 @@
         <v>32143</v>
       </c>
       <c r="G65" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H65" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>87</v>
@@ -3313,10 +3313,10 @@
         <v>32143</v>
       </c>
       <c r="G66" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H66" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>87</v>
@@ -3345,10 +3345,10 @@
         <v>32143</v>
       </c>
       <c r="G67" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H67" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>87</v>
@@ -3377,10 +3377,10 @@
         <v>32143</v>
       </c>
       <c r="G68" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H68" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>87</v>
@@ -3409,10 +3409,10 @@
         <v>32143</v>
       </c>
       <c r="G69" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H69" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>87</v>
@@ -3441,10 +3441,10 @@
         <v>32143</v>
       </c>
       <c r="G70" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H70" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>87</v>
@@ -3473,10 +3473,10 @@
         <v>32143</v>
       </c>
       <c r="G71" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H71" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>87</v>
@@ -3505,10 +3505,10 @@
         <v>32143</v>
       </c>
       <c r="G72" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H72" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>87</v>
@@ -3537,10 +3537,10 @@
         <v>32143</v>
       </c>
       <c r="G73" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H73" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>87</v>
@@ -3569,10 +3569,10 @@
         <v>32143</v>
       </c>
       <c r="G74" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H74" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>87</v>
@@ -3601,10 +3601,10 @@
         <v>32143</v>
       </c>
       <c r="G75" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H75" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>87</v>
@@ -3633,10 +3633,10 @@
         <v>32143</v>
       </c>
       <c r="G76" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H76" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>87</v>
@@ -3665,10 +3665,10 @@
         <v>32143</v>
       </c>
       <c r="G77" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H77" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>87</v>
@@ -3697,10 +3697,10 @@
         <v>32143</v>
       </c>
       <c r="G78" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H78" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>87</v>
@@ -3729,10 +3729,10 @@
         <v>32143</v>
       </c>
       <c r="G79" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H79" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>87</v>
@@ -3761,10 +3761,10 @@
         <v>32143</v>
       </c>
       <c r="G80" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H80" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>87</v>
@@ -3793,10 +3793,10 @@
         <v>32143</v>
       </c>
       <c r="G81" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H81" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>87</v>
@@ -3825,10 +3825,10 @@
         <v>32143</v>
       </c>
       <c r="G82" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H82" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>87</v>
@@ -3857,10 +3857,10 @@
         <v>32143</v>
       </c>
       <c r="G83" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H83" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>87</v>
@@ -3889,10 +3889,10 @@
         <v>32143</v>
       </c>
       <c r="G84" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H84" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>87</v>
@@ -3921,10 +3921,10 @@
         <v>32143</v>
       </c>
       <c r="G85" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H85" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>87</v>
@@ -3953,10 +3953,10 @@
         <v>32143</v>
       </c>
       <c r="G86" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H86" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>87</v>
@@ -3985,10 +3985,10 @@
         <v>32143</v>
       </c>
       <c r="G87" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H87" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>87</v>
@@ -4017,10 +4017,10 @@
         <v>32143</v>
       </c>
       <c r="G88" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H88" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>87</v>
@@ -4049,10 +4049,10 @@
         <v>32143</v>
       </c>
       <c r="G89" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H89" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>87</v>
@@ -4165,7 +4165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA419"/>
+  <dimension ref="A1:CA422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -5854,238 +5854,238 @@
         <v>84</v>
       </c>
       <c r="B8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="Q8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="R8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="S8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="T8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="U8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="V8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="W8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="X8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="Y8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="Z8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AA8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AB8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AC8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AD8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AE8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AF8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AG8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AH8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AI8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AK8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AL8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AM8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AN8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AO8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AP8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AR8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AS8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AT8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AU8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AV8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AW8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AX8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AY8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BA8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BB8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BC8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BD8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BE8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BF8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BG8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BH8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BI8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BK8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BL8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BM8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BN8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BO8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BP8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BQ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BR8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BS8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BT8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BU8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BV8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BW8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BX8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BY8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BZ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="CA8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.2">
@@ -6093,238 +6093,238 @@
         <v>85</v>
       </c>
       <c r="B9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="R9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="S9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="T9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="V9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="W9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="X9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Y9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Z9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AA9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AB9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AC9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AD9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AE9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AG9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AH9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AI9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AJ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AK9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AL9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AM9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AN9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AO9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AP9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AQ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AR9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AS9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AT9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AU9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AV9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AW9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AX9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AY9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AZ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BA9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BB9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BC9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BD9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BE9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BF9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BG9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BH9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BI9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BJ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BK9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BL9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BM9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BN9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BO9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BP9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BQ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BR9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BS9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BT9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BU9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BV9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BW9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BX9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BY9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BZ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="CA9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.2">
@@ -102894,7 +102894,7 @@
         <v>169</v>
       </c>
       <c r="D414" s="8">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E414" s="8">
         <v>194</v>
@@ -102930,7 +102930,7 @@
         <v>1</v>
       </c>
       <c r="P414" s="8">
-        <v>17852</v>
+        <v>17816</v>
       </c>
       <c r="Q414" s="8">
         <v>46</v>
@@ -102948,28 +102948,28 @@
         <v>22</v>
       </c>
       <c r="V414" s="8">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="W414" s="8">
         <v>179</v>
       </c>
       <c r="X414" s="8">
-        <v>16765</v>
+        <v>16733</v>
       </c>
       <c r="Y414" s="8">
         <v>58</v>
       </c>
       <c r="Z414" s="8">
-        <v>12217</v>
+        <v>12223</v>
       </c>
       <c r="AA414" s="8">
-        <v>5980</v>
+        <v>5992</v>
       </c>
       <c r="AB414" s="8">
         <v>1389</v>
       </c>
       <c r="AC414" s="8">
-        <v>4848</v>
+        <v>4842</v>
       </c>
       <c r="AD414" s="8">
         <v>104</v>
@@ -102984,7 +102984,7 @@
         <v>3</v>
       </c>
       <c r="AH414" s="8">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AI414" s="8">
         <v>20</v>
@@ -103119,7 +103119,7 @@
         <v>910</v>
       </c>
       <c r="CA414" s="8">
-        <v>42348</v>
+        <v>42316</v>
       </c>
     </row>
     <row r="415" spans="1:79" x14ac:dyDescent="0.2">
@@ -103169,7 +103169,7 @@
         <v>3</v>
       </c>
       <c r="P415" s="8">
-        <v>14384</v>
+        <v>14266</v>
       </c>
       <c r="Q415" s="8">
         <v>52</v>
@@ -103187,28 +103187,28 @@
         <v>20</v>
       </c>
       <c r="V415" s="8">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="W415" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="X415" s="8">
-        <v>13237</v>
+        <v>13122</v>
       </c>
       <c r="Y415" s="8">
         <v>57</v>
       </c>
       <c r="Z415" s="8">
-        <v>13138</v>
+        <v>13140</v>
       </c>
       <c r="AA415" s="8">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="AB415" s="8">
         <v>1401</v>
       </c>
       <c r="AC415" s="8">
-        <v>5229</v>
+        <v>5232</v>
       </c>
       <c r="AD415" s="8">
         <v>84</v>
@@ -103253,7 +103253,7 @@
         <v>120</v>
       </c>
       <c r="AR415" s="8">
-        <v>1354</v>
+        <v>1362</v>
       </c>
       <c r="AS415" s="8">
         <v>14</v>
@@ -103277,13 +103277,13 @@
         <v>54</v>
       </c>
       <c r="AZ415" s="8">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="BA415" s="8">
         <v>100</v>
       </c>
       <c r="BB415" s="8">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="BC415" s="8">
         <v>93</v>
@@ -103304,7 +103304,7 @@
         <v>215</v>
       </c>
       <c r="BI415" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="BJ415" s="8">
         <v>169</v>
@@ -103358,7 +103358,7 @@
         <v>972</v>
       </c>
       <c r="CA415" s="8">
-        <v>38096</v>
+        <v>37985</v>
       </c>
     </row>
     <row r="416" spans="1:79" x14ac:dyDescent="0.2">
@@ -103366,7 +103366,7 @@
         <v>44470</v>
       </c>
       <c r="B416" s="8">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="C416" s="8">
         <v>113</v>
@@ -103399,7 +103399,7 @@
         <v>187</v>
       </c>
       <c r="M416" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N416" s="8">
         <v>203</v>
@@ -103408,7 +103408,7 @@
         <v>2</v>
       </c>
       <c r="P416" s="8">
-        <v>11965</v>
+        <v>11902</v>
       </c>
       <c r="Q416" s="8">
         <v>46</v>
@@ -103426,28 +103426,28 @@
         <v>22</v>
       </c>
       <c r="V416" s="8">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="W416" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="X416" s="8">
-        <v>10944</v>
+        <v>10893</v>
       </c>
       <c r="Y416" s="8">
         <v>47</v>
       </c>
       <c r="Z416" s="8">
-        <v>15272</v>
+        <v>15295</v>
       </c>
       <c r="AA416" s="8">
-        <v>8033</v>
+        <v>8051</v>
       </c>
       <c r="AB416" s="8">
         <v>1313</v>
       </c>
       <c r="AC416" s="8">
-        <v>5925</v>
+        <v>5931</v>
       </c>
       <c r="AD416" s="8">
         <v>105</v>
@@ -103492,7 +103492,7 @@
         <v>126</v>
       </c>
       <c r="AR416" s="8">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="AS416" s="8">
         <v>13</v>
@@ -103513,16 +103513,16 @@
         <v>32</v>
       </c>
       <c r="AY416" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AZ416" s="8">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="BA416" s="8">
         <v>104</v>
       </c>
       <c r="BB416" s="8">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="BC416" s="8">
         <v>59</v>
@@ -103546,13 +103546,13 @@
         <v>188</v>
       </c>
       <c r="BJ416" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BK416" s="8">
         <v>148</v>
       </c>
       <c r="BL416" s="8">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="BM416" s="8">
         <v>17</v>
@@ -103579,7 +103579,7 @@
         <v>231</v>
       </c>
       <c r="BU416" s="8">
-        <v>3313</v>
+        <v>3263</v>
       </c>
       <c r="BV416" s="8">
         <v>158</v>
@@ -103594,10 +103594,10 @@
         <v>1998</v>
       </c>
       <c r="BZ416" s="8">
-        <v>858</v>
+        <v>808</v>
       </c>
       <c r="CA416" s="8">
-        <v>38228</v>
+        <v>38145</v>
       </c>
     </row>
     <row r="417" spans="1:79" x14ac:dyDescent="0.2">
@@ -103605,13 +103605,13 @@
         <v>44501</v>
       </c>
       <c r="B417" s="8">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="C417" s="8">
         <v>83</v>
       </c>
       <c r="D417" s="8">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E417" s="8">
         <v>275</v>
@@ -103626,7 +103626,7 @@
         <v>303</v>
       </c>
       <c r="I417" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J417" s="8">
         <v>45</v>
@@ -103647,7 +103647,7 @@
         <v>1</v>
       </c>
       <c r="P417" s="8">
-        <v>11786</v>
+        <v>11960</v>
       </c>
       <c r="Q417" s="8">
         <v>50</v>
@@ -103665,28 +103665,28 @@
         <v>28</v>
       </c>
       <c r="V417" s="8">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="W417" s="8">
         <v>184</v>
       </c>
       <c r="X417" s="8">
-        <v>10296</v>
+        <v>10465</v>
       </c>
       <c r="Y417" s="8">
         <v>55</v>
       </c>
       <c r="Z417" s="8">
-        <v>16481</v>
+        <v>16590</v>
       </c>
       <c r="AA417" s="8">
-        <v>8663</v>
+        <v>8688</v>
       </c>
       <c r="AB417" s="8">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="AC417" s="8">
-        <v>6482</v>
+        <v>6565</v>
       </c>
       <c r="AD417" s="8">
         <v>123</v>
@@ -103731,7 +103731,7 @@
         <v>140</v>
       </c>
       <c r="AR417" s="8">
-        <v>1537</v>
+        <v>1544</v>
       </c>
       <c r="AS417" s="8">
         <v>12</v>
@@ -103752,10 +103752,10 @@
         <v>39</v>
       </c>
       <c r="AY417" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AZ417" s="8">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="BA417" s="8">
         <v>113</v>
@@ -103818,7 +103818,7 @@
         <v>267</v>
       </c>
       <c r="BU417" s="8">
-        <v>3292</v>
+        <v>3281</v>
       </c>
       <c r="BV417" s="8">
         <v>163</v>
@@ -103833,10 +103833,10 @@
         <v>1768</v>
       </c>
       <c r="BZ417" s="8">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="CA417" s="8">
-        <v>40189</v>
+        <v>40466</v>
       </c>
     </row>
     <row r="418" spans="1:79" x14ac:dyDescent="0.2">
@@ -103844,10 +103844,10 @@
         <v>44531</v>
       </c>
       <c r="B418" s="8">
-        <v>4280</v>
+        <v>4270</v>
       </c>
       <c r="C418" s="8">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D418" s="8">
         <v>1434</v>
@@ -103886,10 +103886,10 @@
         <v>2</v>
       </c>
       <c r="P418" s="8">
-        <v>14000</v>
+        <v>14522</v>
       </c>
       <c r="Q418" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R418" s="8">
         <v>322</v>
@@ -103904,28 +103904,28 @@
         <v>27</v>
       </c>
       <c r="V418" s="8">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="W418" s="8">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="X418" s="8">
-        <v>12576</v>
+        <v>13086</v>
       </c>
       <c r="Y418" s="8">
         <v>55</v>
       </c>
       <c r="Z418" s="8">
-        <v>15869</v>
+        <v>16384</v>
       </c>
       <c r="AA418" s="8">
-        <v>7967</v>
+        <v>8467</v>
       </c>
       <c r="AB418" s="8">
-        <v>1481</v>
+        <v>1452</v>
       </c>
       <c r="AC418" s="8">
-        <v>6421</v>
+        <v>6465</v>
       </c>
       <c r="AD418" s="8">
         <v>109</v>
@@ -103940,7 +103940,7 @@
         <v>5</v>
       </c>
       <c r="AH418" s="8">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="AI418" s="8">
         <v>23</v>
@@ -103952,7 +103952,7 @@
         <v>93</v>
       </c>
       <c r="AL418" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AM418" s="8">
         <v>146</v>
@@ -103964,13 +103964,13 @@
         <v>27</v>
       </c>
       <c r="AP418" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AQ418" s="8">
         <v>151</v>
       </c>
       <c r="AR418" s="8">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="AS418" s="8">
         <v>15</v>
@@ -103985,34 +103985,34 @@
         <v>86</v>
       </c>
       <c r="AW418" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX418" s="8">
         <v>43</v>
       </c>
       <c r="AY418" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AZ418" s="8">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="BA418" s="8">
         <v>100</v>
       </c>
       <c r="BB418" s="8">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="BC418" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BD418" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BE418" s="8">
         <v>22</v>
       </c>
       <c r="BF418" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="BG418" s="8">
         <v>135</v>
@@ -104021,7 +104021,7 @@
         <v>238</v>
       </c>
       <c r="BI418" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BJ418" s="8">
         <v>187</v>
@@ -104042,7 +104042,7 @@
         <v>12</v>
       </c>
       <c r="BP418" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BQ418" s="8">
         <v>8</v>
@@ -104057,10 +104057,10 @@
         <v>224</v>
       </c>
       <c r="BU418" s="8">
-        <v>3126</v>
+        <v>3112</v>
       </c>
       <c r="BV418" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="BW418" s="8">
         <v>158</v>
@@ -104072,10 +104072,10 @@
         <v>2139</v>
       </c>
       <c r="BZ418" s="8">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="CA418" s="8">
-        <v>42093</v>
+        <v>43110</v>
       </c>
     </row>
     <row r="419" spans="1:79" x14ac:dyDescent="0.2">
@@ -104083,55 +104083,55 @@
         <v>44562</v>
       </c>
       <c r="B419" s="8">
-        <v>3980</v>
+        <v>3783</v>
       </c>
       <c r="C419" s="8">
         <v>139</v>
       </c>
       <c r="D419" s="8">
-        <v>1019</v>
+        <v>957</v>
       </c>
       <c r="E419" s="8">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F419" s="8">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G419" s="8">
-        <v>1582</v>
+        <v>1533</v>
       </c>
       <c r="H419" s="8">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="I419" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J419" s="8">
         <v>41</v>
       </c>
       <c r="K419" s="8">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L419" s="8">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M419" s="8">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N419" s="8">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="O419" s="8">
         <v>1</v>
       </c>
       <c r="P419" s="8">
-        <v>14223</v>
+        <v>14225</v>
       </c>
       <c r="Q419" s="8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R419" s="8">
-        <v>787</v>
+        <v>859</v>
       </c>
       <c r="S419" s="8">
         <v>0</v>
@@ -104140,139 +104140,139 @@
         <v>112</v>
       </c>
       <c r="U419" s="8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V419" s="8">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="W419" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X419" s="8">
-        <v>12588</v>
+        <v>12561</v>
       </c>
       <c r="Y419" s="8">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Z419" s="8">
-        <v>15116</v>
+        <v>17125</v>
       </c>
       <c r="AA419" s="8">
-        <v>7635</v>
+        <v>9576</v>
       </c>
       <c r="AB419" s="8">
-        <v>1358</v>
+        <v>1417</v>
       </c>
       <c r="AC419" s="8">
-        <v>6123</v>
+        <v>6132</v>
       </c>
       <c r="AD419" s="8">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AE419" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF419" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG419" s="8">
         <v>4</v>
       </c>
       <c r="AH419" s="8">
-        <v>973</v>
+        <v>936</v>
       </c>
       <c r="AI419" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ419" s="8">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="AK419" s="8">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AL419" s="8">
         <v>351</v>
       </c>
       <c r="AM419" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AN419" s="8">
         <v>70</v>
       </c>
       <c r="AO419" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP419" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ419" s="8">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AR419" s="8">
-        <v>1485</v>
+        <v>1441</v>
       </c>
       <c r="AS419" s="8">
         <v>7</v>
       </c>
       <c r="AT419" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU419" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV419" s="8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AW419" s="8">
         <v>23</v>
       </c>
       <c r="AX419" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AY419" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AZ419" s="8">
-        <v>1138</v>
+        <v>1106</v>
       </c>
       <c r="BA419" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BB419" s="8">
-        <v>1231</v>
+        <v>1202</v>
       </c>
       <c r="BC419" s="8">
         <v>59</v>
       </c>
       <c r="BD419" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="BE419" s="8">
         <v>16</v>
       </c>
       <c r="BF419" s="8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="BG419" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BH419" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BI419" s="8">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="BJ419" s="8">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="BK419" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="BL419" s="8">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="BM419" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BN419" s="8">
         <v>10</v>
@@ -104287,19 +104287,19 @@
         <v>8</v>
       </c>
       <c r="BR419" s="8">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="BS419" s="8">
         <v>42</v>
       </c>
       <c r="BT419" s="8">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="BU419" s="8">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="BV419" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="BW419" s="8">
         <v>251</v>
@@ -104308,13 +104308,730 @@
         <v>0</v>
       </c>
       <c r="BY419" s="8">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="BZ419" s="8">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="CA419" s="8">
-        <v>40779</v>
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="420" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A420" s="9">
+        <v>44593</v>
+      </c>
+      <c r="B420" s="8">
+        <v>4151</v>
+      </c>
+      <c r="C420" s="8">
+        <v>102</v>
+      </c>
+      <c r="D420" s="8">
+        <v>1143</v>
+      </c>
+      <c r="E420" s="8">
+        <v>298</v>
+      </c>
+      <c r="F420" s="8">
+        <v>74</v>
+      </c>
+      <c r="G420" s="8">
+        <v>1761</v>
+      </c>
+      <c r="H420" s="8">
+        <v>445</v>
+      </c>
+      <c r="I420" s="8">
+        <v>25</v>
+      </c>
+      <c r="J420" s="8">
+        <v>39</v>
+      </c>
+      <c r="K420" s="8">
+        <v>128</v>
+      </c>
+      <c r="L420" s="8">
+        <v>135</v>
+      </c>
+      <c r="M420" s="8">
+        <v>158</v>
+      </c>
+      <c r="N420" s="8">
+        <v>157</v>
+      </c>
+      <c r="O420" s="8">
+        <v>1</v>
+      </c>
+      <c r="P420" s="8">
+        <v>13552</v>
+      </c>
+      <c r="Q420" s="8">
+        <v>34</v>
+      </c>
+      <c r="R420" s="8">
+        <v>611</v>
+      </c>
+      <c r="S420" s="8">
+        <v>0</v>
+      </c>
+      <c r="T420" s="8">
+        <v>125</v>
+      </c>
+      <c r="U420" s="8">
+        <v>30</v>
+      </c>
+      <c r="V420" s="8">
+        <v>360</v>
+      </c>
+      <c r="W420" s="8">
+        <v>349</v>
+      </c>
+      <c r="X420" s="8">
+        <v>11994</v>
+      </c>
+      <c r="Y420" s="8">
+        <v>48</v>
+      </c>
+      <c r="Z420" s="8">
+        <v>15755</v>
+      </c>
+      <c r="AA420" s="8">
+        <v>8666</v>
+      </c>
+      <c r="AB420" s="8">
+        <v>1195</v>
+      </c>
+      <c r="AC420" s="8">
+        <v>5895</v>
+      </c>
+      <c r="AD420" s="8">
+        <v>76</v>
+      </c>
+      <c r="AE420" s="8">
+        <v>35</v>
+      </c>
+      <c r="AF420" s="8">
+        <v>33</v>
+      </c>
+      <c r="AG420" s="8">
+        <v>8</v>
+      </c>
+      <c r="AH420" s="8">
+        <v>910</v>
+      </c>
+      <c r="AI420" s="8">
+        <v>21</v>
+      </c>
+      <c r="AJ420" s="8">
+        <v>143</v>
+      </c>
+      <c r="AK420" s="8">
+        <v>98</v>
+      </c>
+      <c r="AL420" s="8">
+        <v>313</v>
+      </c>
+      <c r="AM420" s="8">
+        <v>146</v>
+      </c>
+      <c r="AN420" s="8">
+        <v>6</v>
+      </c>
+      <c r="AO420" s="8">
+        <v>21</v>
+      </c>
+      <c r="AP420" s="8">
+        <v>34</v>
+      </c>
+      <c r="AQ420" s="8">
+        <v>129</v>
+      </c>
+      <c r="AR420" s="8">
+        <v>1377</v>
+      </c>
+      <c r="AS420" s="8">
+        <v>12</v>
+      </c>
+      <c r="AT420" s="8">
+        <v>20</v>
+      </c>
+      <c r="AU420" s="8">
+        <v>9</v>
+      </c>
+      <c r="AV420" s="8">
+        <v>98</v>
+      </c>
+      <c r="AW420" s="8">
+        <v>23</v>
+      </c>
+      <c r="AX420" s="8">
+        <v>31</v>
+      </c>
+      <c r="AY420" s="8">
+        <v>49</v>
+      </c>
+      <c r="AZ420" s="8">
+        <v>1034</v>
+      </c>
+      <c r="BA420" s="8">
+        <v>101</v>
+      </c>
+      <c r="BB420" s="8">
+        <v>1236</v>
+      </c>
+      <c r="BC420" s="8">
+        <v>63</v>
+      </c>
+      <c r="BD420" s="8">
+        <v>123</v>
+      </c>
+      <c r="BE420" s="8">
+        <v>15</v>
+      </c>
+      <c r="BF420" s="8">
+        <v>163</v>
+      </c>
+      <c r="BG420" s="8">
+        <v>119</v>
+      </c>
+      <c r="BH420" s="8">
+        <v>181</v>
+      </c>
+      <c r="BI420" s="8">
+        <v>179</v>
+      </c>
+      <c r="BJ420" s="8">
+        <v>150</v>
+      </c>
+      <c r="BK420" s="8">
+        <v>243</v>
+      </c>
+      <c r="BL420" s="8">
+        <v>718</v>
+      </c>
+      <c r="BM420" s="8">
+        <v>13</v>
+      </c>
+      <c r="BN420" s="8">
+        <v>11</v>
+      </c>
+      <c r="BO420" s="8">
+        <v>13</v>
+      </c>
+      <c r="BP420" s="8">
+        <v>45</v>
+      </c>
+      <c r="BQ420" s="8">
+        <v>11</v>
+      </c>
+      <c r="BR420" s="8">
+        <v>346</v>
+      </c>
+      <c r="BS420" s="8">
+        <v>35</v>
+      </c>
+      <c r="BT420" s="8">
+        <v>244</v>
+      </c>
+      <c r="BU420" s="8">
+        <v>3167</v>
+      </c>
+      <c r="BV420" s="8">
+        <v>54</v>
+      </c>
+      <c r="BW420" s="8">
+        <v>201</v>
+      </c>
+      <c r="BX420" s="8">
+        <v>0</v>
+      </c>
+      <c r="BY420" s="8">
+        <v>2127</v>
+      </c>
+      <c r="BZ420" s="8">
+        <v>785</v>
+      </c>
+      <c r="CA420" s="8">
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="421" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A421" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B421" s="8">
+        <v>4281</v>
+      </c>
+      <c r="C421" s="8">
+        <v>118</v>
+      </c>
+      <c r="D421" s="8">
+        <v>1412</v>
+      </c>
+      <c r="E421" s="8">
+        <v>319</v>
+      </c>
+      <c r="F421" s="8">
+        <v>61</v>
+      </c>
+      <c r="G421" s="8">
+        <v>1627</v>
+      </c>
+      <c r="H421" s="8">
+        <v>394</v>
+      </c>
+      <c r="I421" s="8">
+        <v>20</v>
+      </c>
+      <c r="J421" s="8">
+        <v>40</v>
+      </c>
+      <c r="K421" s="8">
+        <v>126</v>
+      </c>
+      <c r="L421" s="8">
+        <v>163</v>
+      </c>
+      <c r="M421" s="8">
+        <v>217</v>
+      </c>
+      <c r="N421" s="8">
+        <v>214</v>
+      </c>
+      <c r="O421" s="8">
+        <v>3</v>
+      </c>
+      <c r="P421" s="8">
+        <v>16270</v>
+      </c>
+      <c r="Q421" s="8">
+        <v>36</v>
+      </c>
+      <c r="R421" s="8">
+        <v>941</v>
+      </c>
+      <c r="S421" s="8">
+        <v>1</v>
+      </c>
+      <c r="T421" s="8">
+        <v>116</v>
+      </c>
+      <c r="U421" s="8">
+        <v>31</v>
+      </c>
+      <c r="V421" s="8">
+        <v>347</v>
+      </c>
+      <c r="W421" s="8">
+        <v>562</v>
+      </c>
+      <c r="X421" s="8">
+        <v>14181</v>
+      </c>
+      <c r="Y421" s="8">
+        <v>55</v>
+      </c>
+      <c r="Z421" s="8">
+        <v>15979</v>
+      </c>
+      <c r="AA421" s="8">
+        <v>8261</v>
+      </c>
+      <c r="AB421" s="8">
+        <v>1483</v>
+      </c>
+      <c r="AC421" s="8">
+        <v>6235</v>
+      </c>
+      <c r="AD421" s="8">
+        <v>154</v>
+      </c>
+      <c r="AE421" s="8">
+        <v>93</v>
+      </c>
+      <c r="AF421" s="8">
+        <v>56</v>
+      </c>
+      <c r="AG421" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH421" s="8">
+        <v>983</v>
+      </c>
+      <c r="AI421" s="8">
+        <v>17</v>
+      </c>
+      <c r="AJ421" s="8">
+        <v>83</v>
+      </c>
+      <c r="AK421" s="8">
+        <v>119</v>
+      </c>
+      <c r="AL421" s="8">
+        <v>366</v>
+      </c>
+      <c r="AM421" s="8">
+        <v>150</v>
+      </c>
+      <c r="AN421" s="8">
+        <v>13</v>
+      </c>
+      <c r="AO421" s="8">
+        <v>29</v>
+      </c>
+      <c r="AP421" s="8">
+        <v>44</v>
+      </c>
+      <c r="AQ421" s="8">
+        <v>163</v>
+      </c>
+      <c r="AR421" s="8">
+        <v>1578</v>
+      </c>
+      <c r="AS421" s="8">
+        <v>12</v>
+      </c>
+      <c r="AT421" s="8">
+        <v>30</v>
+      </c>
+      <c r="AU421" s="8">
+        <v>9</v>
+      </c>
+      <c r="AV421" s="8">
+        <v>98</v>
+      </c>
+      <c r="AW421" s="8">
+        <v>31</v>
+      </c>
+      <c r="AX421" s="8">
+        <v>52</v>
+      </c>
+      <c r="AY421" s="8">
+        <v>105</v>
+      </c>
+      <c r="AZ421" s="8">
+        <v>1122</v>
+      </c>
+      <c r="BA421" s="8">
+        <v>118</v>
+      </c>
+      <c r="BB421" s="8">
+        <v>1306</v>
+      </c>
+      <c r="BC421" s="8">
+        <v>87</v>
+      </c>
+      <c r="BD421" s="8">
+        <v>162</v>
+      </c>
+      <c r="BE421" s="8">
+        <v>27</v>
+      </c>
+      <c r="BF421" s="8">
+        <v>195</v>
+      </c>
+      <c r="BG421" s="8">
+        <v>149</v>
+      </c>
+      <c r="BH421" s="8">
+        <v>195</v>
+      </c>
+      <c r="BI421" s="8">
+        <v>211</v>
+      </c>
+      <c r="BJ421" s="8">
+        <v>166</v>
+      </c>
+      <c r="BK421" s="8">
+        <v>114</v>
+      </c>
+      <c r="BL421" s="8">
+        <v>794</v>
+      </c>
+      <c r="BM421" s="8">
+        <v>15</v>
+      </c>
+      <c r="BN421" s="8">
+        <v>12</v>
+      </c>
+      <c r="BO421" s="8">
+        <v>15</v>
+      </c>
+      <c r="BP421" s="8">
+        <v>56</v>
+      </c>
+      <c r="BQ421" s="8">
+        <v>12</v>
+      </c>
+      <c r="BR421" s="8">
+        <v>392</v>
+      </c>
+      <c r="BS421" s="8">
+        <v>47</v>
+      </c>
+      <c r="BT421" s="8">
+        <v>245</v>
+      </c>
+      <c r="BU421" s="8">
+        <v>2986</v>
+      </c>
+      <c r="BV421" s="8">
+        <v>67</v>
+      </c>
+      <c r="BW421" s="8">
+        <v>269</v>
+      </c>
+      <c r="BX421" s="8">
+        <v>0</v>
+      </c>
+      <c r="BY421" s="8">
+        <v>1565</v>
+      </c>
+      <c r="BZ421" s="8">
+        <v>1086</v>
+      </c>
+      <c r="CA421" s="8">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="422" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A422" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B422" s="8">
+        <v>4440</v>
+      </c>
+      <c r="C422" s="8">
+        <v>106</v>
+      </c>
+      <c r="D422" s="8">
+        <v>1384</v>
+      </c>
+      <c r="E422" s="8">
+        <v>294</v>
+      </c>
+      <c r="F422" s="8">
+        <v>67</v>
+      </c>
+      <c r="G422" s="8">
+        <v>1751</v>
+      </c>
+      <c r="H422" s="8">
+        <v>455</v>
+      </c>
+      <c r="I422" s="8">
+        <v>22</v>
+      </c>
+      <c r="J422" s="8">
+        <v>37</v>
+      </c>
+      <c r="K422" s="8">
+        <v>127</v>
+      </c>
+      <c r="L422" s="8">
+        <v>197</v>
+      </c>
+      <c r="M422" s="8">
+        <v>207</v>
+      </c>
+      <c r="N422" s="8">
+        <v>205</v>
+      </c>
+      <c r="O422" s="8">
+        <v>2</v>
+      </c>
+      <c r="P422" s="8">
+        <v>16190</v>
+      </c>
+      <c r="Q422" s="8">
+        <v>44</v>
+      </c>
+      <c r="R422" s="8">
+        <v>731</v>
+      </c>
+      <c r="S422" s="8">
+        <v>1</v>
+      </c>
+      <c r="T422" s="8">
+        <v>114</v>
+      </c>
+      <c r="U422" s="8">
+        <v>30</v>
+      </c>
+      <c r="V422" s="8">
+        <v>351</v>
+      </c>
+      <c r="W422" s="8">
+        <v>525</v>
+      </c>
+      <c r="X422" s="8">
+        <v>14331</v>
+      </c>
+      <c r="Y422" s="8">
+        <v>62</v>
+      </c>
+      <c r="Z422" s="8">
+        <v>16677</v>
+      </c>
+      <c r="AA422" s="8">
+        <v>8762</v>
+      </c>
+      <c r="AB422" s="8">
+        <v>1663</v>
+      </c>
+      <c r="AC422" s="8">
+        <v>6252</v>
+      </c>
+      <c r="AD422" s="8">
+        <v>134</v>
+      </c>
+      <c r="AE422" s="8">
+        <v>87</v>
+      </c>
+      <c r="AF422" s="8">
+        <v>42</v>
+      </c>
+      <c r="AG422" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH422" s="8">
+        <v>1027</v>
+      </c>
+      <c r="AI422" s="8">
+        <v>23</v>
+      </c>
+      <c r="AJ422" s="8">
+        <v>185</v>
+      </c>
+      <c r="AK422" s="8">
+        <v>96</v>
+      </c>
+      <c r="AL422" s="8">
+        <v>290</v>
+      </c>
+      <c r="AM422" s="8">
+        <v>130</v>
+      </c>
+      <c r="AN422" s="8">
+        <v>93</v>
+      </c>
+      <c r="AO422" s="8">
+        <v>30</v>
+      </c>
+      <c r="AP422" s="8">
+        <v>39</v>
+      </c>
+      <c r="AQ422" s="8">
+        <v>140</v>
+      </c>
+      <c r="AR422" s="8">
+        <v>1841</v>
+      </c>
+      <c r="AS422" s="8">
+        <v>13</v>
+      </c>
+      <c r="AT422" s="8">
+        <v>22</v>
+      </c>
+      <c r="AU422" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV422" s="8">
+        <v>100</v>
+      </c>
+      <c r="AW422" s="8">
+        <v>28</v>
+      </c>
+      <c r="AX422" s="8">
+        <v>44</v>
+      </c>
+      <c r="AY422" s="8">
+        <v>111</v>
+      </c>
+      <c r="AZ422" s="8">
+        <v>1404</v>
+      </c>
+      <c r="BA422" s="8">
+        <v>113</v>
+      </c>
+      <c r="BB422" s="8">
+        <v>1349</v>
+      </c>
+      <c r="BC422" s="8">
+        <v>76</v>
+      </c>
+      <c r="BD422" s="8">
+        <v>188</v>
+      </c>
+      <c r="BE422" s="8">
+        <v>22</v>
+      </c>
+      <c r="BF422" s="8">
+        <v>193</v>
+      </c>
+      <c r="BG422" s="8">
+        <v>119</v>
+      </c>
+      <c r="BH422" s="8">
+        <v>187</v>
+      </c>
+      <c r="BI422" s="8">
+        <v>208</v>
+      </c>
+      <c r="BJ422" s="8">
+        <v>191</v>
+      </c>
+      <c r="BK422" s="8">
+        <v>165</v>
+      </c>
+      <c r="BL422" s="8">
+        <v>695</v>
+      </c>
+      <c r="BM422" s="8">
+        <v>16</v>
+      </c>
+      <c r="BN422" s="8">
+        <v>11</v>
+      </c>
+      <c r="BO422" s="8">
+        <v>15</v>
+      </c>
+      <c r="BP422" s="8">
+        <v>59</v>
+      </c>
+      <c r="BQ422" s="8">
+        <v>10</v>
+      </c>
+      <c r="BR422" s="8">
+        <v>333</v>
+      </c>
+      <c r="BS422" s="8">
+        <v>30</v>
+      </c>
+      <c r="BT422" s="8">
+        <v>220</v>
+      </c>
+      <c r="BU422" s="8">
+        <v>2501</v>
+      </c>
+      <c r="BV422" s="8">
+        <v>68</v>
+      </c>
+      <c r="BW422" s="8">
+        <v>254</v>
+      </c>
+      <c r="BX422" s="8">
+        <v>2</v>
+      </c>
+      <c r="BY422" s="8">
+        <v>1043</v>
+      </c>
+      <c r="BZ422" s="8">
+        <v>1133</v>
+      </c>
+      <c r="CA422" s="8">
+        <v>45061</v>
       </c>
     </row>
   </sheetData>
